--- a/docs/swing-weighting-exercise-draft.xlsx
+++ b/docs/swing-weighting-exercise-draft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreynolds\Desktop\SwingWeightingDraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreynolds\Documents\GitHub\PSPAP-Reboot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Name:</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Please submit the form, once all sheets are completed to the email below. </t>
-  </si>
-  <si>
-    <t>No estimates could be made (Performance = 0)</t>
-  </si>
-  <si>
-    <t>All estimates made (Performance = 100)</t>
   </si>
   <si>
     <t>Scenario</t>
@@ -92,18 +86,9 @@
     <t>Monitoring program can detect recruitment reliably even if it occurred</t>
   </si>
   <si>
-    <t>No pallid sturgeon population trend estimates could be made (Performance = 0)</t>
-  </si>
-  <si>
-    <t>Variation around estimates of pallid sturegon population trend is large, coefficient of variation exceeding 50%</t>
-  </si>
-  <si>
     <t>Value (0-100)</t>
   </si>
   <si>
-    <t>Rank (1-4)</t>
-  </si>
-  <si>
     <t>Rank (1-3)</t>
   </si>
   <si>
@@ -122,59 +107,99 @@
     <t>Maintain compatibility with legacy PSPAP data</t>
   </si>
   <si>
-    <t>Abundance estimate precsision</t>
-  </si>
-  <si>
-    <t>Abundance estimate bias</t>
-  </si>
-  <si>
-    <t>Abundance Estimate performance</t>
-  </si>
-  <si>
-    <t>Trend estimate precsision</t>
-  </si>
-  <si>
     <t>Trend estimate bias</t>
   </si>
   <si>
-    <t>Trend Estimate performance</t>
-  </si>
-  <si>
-    <t>michael.colvin@msstate.edu</t>
-  </si>
-  <si>
-    <t>Estimates of pallid sturegon population trend are unbiased, estimates expected to be within 1% of the population trend</t>
-  </si>
-  <si>
     <t>Monitoring program has no power to estimate annual trend accurately, precisely and reliably</t>
   </si>
   <si>
-    <t>Average segment abundance estimate is within 10 fish of true abundance</t>
-  </si>
-  <si>
-    <t>All estimates made (Performance = 100%)</t>
-  </si>
-  <si>
-    <t>Average segment abundance estimate very precise CV &lt; 0.01%</t>
-  </si>
-  <si>
-    <t>Variation around estimates of pallid sturegon population trend is small, coefficent of variation is less than 1%</t>
-  </si>
-  <si>
-    <t>Average segment abundance estimate is off by 4,000 fish or more</t>
-  </si>
-  <si>
-    <t>Average segment abundance estimate not very precise CV &gt; 25%</t>
-  </si>
-  <si>
-    <t>Estimates of trend are biased, greater than 50%  (e.g. the population is expected to increase each year by 5%, but is estimated to increase by 55%)</t>
+    <t>Estimates of pallid sturegon population trend are unbiased, estimates expected to be within 0.01% of the population trend</t>
+  </si>
+  <si>
+    <t>Estimates of trend are biased by 70% or greater  (e.g. the population is expected to increase each year by 5%, but is estimated to increase each year by 75% or more)</t>
+  </si>
+  <si>
+    <t>Variation around estimates of pallid sturegon population trend is large, coefficient of variation exceeding 37.5%</t>
+  </si>
+  <si>
+    <t>Variation around estimates of pallid sturegon population trend is small, coefficent of variation is less than 0.005%</t>
+  </si>
+  <si>
+    <t>Average basin abundance estimate not very precise CV &gt; 30%</t>
+  </si>
+  <si>
+    <t>Average basin abundance estimate very precise CV &lt; 0.01%</t>
+  </si>
+  <si>
+    <t>Abundance estimate precision</t>
+  </si>
+  <si>
+    <t>s.reynolds@msstate.edu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Average basin level </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abundance bias is greater than or equal to 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Average basin level </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abundance bias is less than 0.001% (bias is within 1 fish of true abundance)</t>
+    </r>
+  </si>
+  <si>
+    <t>Abundance estimate relative bias</t>
+  </si>
+  <si>
+    <t>Trend estimate precision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +241,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -501,14 +534,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -517,8 +550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="2849880"/>
-          <a:ext cx="7216140" cy="1158240"/>
+          <a:off x="38100" y="2762250"/>
+          <a:ext cx="7477125" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,7 +597,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 4 is the worst.</a:t>
+            <a:t> with the baseline the worst rank. For rankings 1 is best and 3 is the worst.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -619,15 +652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -636,8 +669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5019675"/>
-          <a:ext cx="8267700" cy="1133475"/>
+          <a:off x="9525" y="4029075"/>
+          <a:ext cx="7467600" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,7 +716,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> with the baseline the worst rank. For rankings 1 is best and 4 is the worst.</a:t>
+            <a:t> with the baseline the worst rank. For rankings 1 is best and 3 is the worst.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1225,7 +1258,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1300,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="21"/>
     </row>
@@ -1278,8 +1311,8 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="wfa.fisheries@gmail.com"/>
-    <hyperlink ref="A6:B6" r:id="rId2" display="michael.colvin@msstate.edu"/>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A6:B6" r:id="rId2" display="s.reynolds@msstate.edu"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" verticalDpi="599" r:id="rId3"/>
@@ -1294,7 +1327,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,19 +1341,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -1328,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -1342,26 +1375,26 @@
     </row>
     <row r="3" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1378,110 +1411,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
       </c>
       <c r="E2" s="7">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
+        <v>38</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" verticalDpi="599" r:id="rId1"/>
@@ -1494,10 +1500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,101 +1511,74 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
       </c>
       <c r="E2" s="7">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="100.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,7 +1594,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="78" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1632,25 +1611,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,16 +1637,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7">
         <v>5</v>
@@ -1678,76 +1657,76 @@
     </row>
     <row r="3" spans="1:7" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
